--- a/Sumary Report.xlsx
+++ b/Sumary Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topph\OneDrive\Desktop\Manual Testing - Moriitalia.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5E79DA-1315-4D2A-AF19-6E20BFB2679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308BF71-D4F6-4A84-8673-AC23438BB68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,13 +934,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="hair">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
@@ -967,6 +960,13 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1979,23 +1979,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2250,7 +2233,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-AEA6-4116-8CBD-476B38D8E26A}"/>
                   </c:ext>
@@ -2360,7 +2343,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-AEA6-4116-8CBD-476B38D8E26A}"/>
                   </c:ext>
@@ -2473,7 +2456,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-AEA6-4116-8CBD-476B38D8E26A}"/>
                   </c:ext>
@@ -2573,10 +2556,6 @@
                     <a:prstGeom prst="rect">
                       <a:avLst/>
                     </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2775,10 +2754,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3100,7 +3075,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-AEA6-4116-8CBD-476B38D8E26A}"/>
                   </c:ext>
@@ -3832,7 +3807,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-9876-41DD-981A-82774E80841E}"/>
                   </c:ext>
@@ -3980,7 +3955,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-9876-41DD-981A-82774E80841E}"/>
                   </c:ext>
@@ -4131,7 +4106,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-9876-41DD-981A-82774E80841E}"/>
                   </c:ext>
@@ -4288,7 +4263,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-9876-41DD-981A-82774E80841E}"/>
                   </c:ext>
@@ -4445,7 +4420,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-9876-41DD-981A-82774E80841E}"/>
                   </c:ext>
@@ -4605,7 +4580,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-9876-41DD-981A-82774E80841E}"/>
                   </c:ext>
@@ -4769,46 +4744,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5352,473 +5287,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="326">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6379,8 +5847,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Test Items 1">
@@ -6403,7 +5871,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6540,7 +6008,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E77E7E2-7F1F-4CA3-AB66-DF82F26FF82D}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E77E7E2-7F1F-4CA3-AB66-DF82F26FF82D}" name="Table1" displayName="Table1" ref="A1:I11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A1:I11" xr:uid="{6E77E7E2-7F1F-4CA3-AB66-DF82F26FF82D}">
     <filterColumn colId="0">
       <filters>
@@ -6842,7 +6310,7 @@
   <dimension ref="F23:R34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sumary Report.xlsx
+++ b/Sumary Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\topph\OneDrive\Desktop\Manual Testing - Moriitalia.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C308BF71-D4F6-4A84-8673-AC23438BB68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F617F0-5B0E-471B-B5CA-66B2B8BF751A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
